--- a/data/SB/Modis-SB-MEAN-CHLA-20182023.xlsx
+++ b/data/SB/Modis-SB-MEAN-CHLA-20182023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robel\Documents\sagamibay\NOWPAP\NMEW.demos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robel\Documents\sagamibay\NOWPAP\NMEW.demos\data\SB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0528C-5974-4E73-8976-755E73F4D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B9ED2D-9874-48D9-A0E6-F53295130A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="sst_cha" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -479,7 +476,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -589,7 +586,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3501,1836 +3498,6 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MODIS_Log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.48429265091863516"/>
-                  <c:y val="-0.28479877515310587"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$B$2:$B$256</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
-                <c:pt idx="0">
-                  <c:v>24.86617087339744</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.894210896164019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.91663544605078</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.129715316328479</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.179016017464679</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.36534220694012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.57624370354069</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.49598095085048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.794101812900641</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.318399662231849</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.0088634672619</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.76573121223565</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.557171365489129</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.125672550031769</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.69927448119326</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.10317007211539</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.927875210479399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.972724488062891</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.865816059972779</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.964647852732041</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.181628455996879</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.926439606741569</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18.21015981193009</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.278914572237021</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.002644344301011</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.07871875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.944804524513209</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.86979690012058</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.51001461116412</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.547160598466981</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.701624465396581</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.28143378688198</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.944574333639711</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.00957853320029</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16.817351030880179</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18.555799406982938</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23.660161264441591</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.014904502731358</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.24297944507823</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.222136686107241</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>20.70969830709042</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17.301079644097221</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15.2669046875</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13.866415368505271</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15.057302414996069</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14.51590489665354</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16.72996632772572</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>21.462327680987819</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>24.40054626464844</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24.077423878205131</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>24.779602301954728</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>22.126226586031631</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>20.336302962039881</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>17.216184428627141</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>15.552913647343001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>15.28548637726022</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>15.512510478763041</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15.265207973310289</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>18.000340930103551</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21.07140451147427</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>22.950581224076171</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>25.981881806344699</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>24.24967830882353</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>20.644586802956589</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>19.999162285248811</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.591309346109401</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>15.458770607775589</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>14.09240364180835</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>14.69236526946108</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>15.73064470720721</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>19.371901633522729</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>20.170838498783681</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>23.583852171136659</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25.757796706536389</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25.196215854844411</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.2714016154661</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>19.554967387071649</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18.542947421021839</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>16.63542962529857</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>13.48025579244548</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>13.111726403755441</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>15.66107485626855</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>18.301995121502209</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>20.074075013528141</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23.04447325805322</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>25.315927826379539</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22.736775956915679</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>20.767404216609592</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>20.0889659068818</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>18.567760190753159</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>15.079050715447931</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>14.59268548621894</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.140193320131379</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>16.7724949471393</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>17.962189168891861</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>19.12014581636808</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>24.78703537297023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>26.884750600961539</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>25.674838632185828</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>22.774157865547838</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>21.86190561147837</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>17.681676682692309</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>15.17101278184335</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>15.22188544123428</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14.995556333529869</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.98579240237294</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>16.915410471732741</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>21.825189123891001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>24.556836682020329</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>26.320404324174081</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>25.92846753003003</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>21.579681728713059</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20.880220734126979</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>17.874317956349209</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>16.20965671242212</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14.987601034296381</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>15.59671912863489</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>13.729697323409759</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>18.41708912037037</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>20.11970269795016</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>23.929413746630729</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>26.590216503267971</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>25.992999690594061</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>22.821832896706589</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>20.723517739848731</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>16.855490045755449</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>14.61520729006163</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>14.252299597723701</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>15.20861852845149</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>16.845578937861269</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>17.770301258992809</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>20.46757036028287</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>24.405129937418721</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>26.54299322525063</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>25.222829978099728</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>24.3374692510933</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>19.29538532838983</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>17.451303801921579</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>15.049991625191421</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>13.64339480086276</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>13.0754296875</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>14.96409519548458</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>17.966998343481379</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>20.74993470657704</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>24.810175904088052</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>25.65179451379764</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>24.211766098484851</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>21.669012460295221</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>20.04579927884615</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>16.670006009615381</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>15.585285954431111</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>14.339796595112929</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>13.65801612367021</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>14.85545863766642</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>17.828534100506761</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>20.667146102241851</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>24.59212608097484</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>26.94153992395437</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>24.893284473604371</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>21.60460102127259</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>20.146569618587289</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>19.569254051824529</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>16.884565067140599</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>14.626308716202979</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>14.82346575665739</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>16.817537705343661</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>18.46978050858711</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>20.6304250233209</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>23.82228326612903</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>26.262438322368421</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>25.428950744267748</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>24.91071151859504</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>21.052734375</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>18.15161935152582</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>16.111871328486131</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>15.86457530816641</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>14.381372793974259</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>14.997732139495479</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>17.690940037959042</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>19.939772172407672</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>24.6083370105905</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>26.550495490771809</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>24.041818405511808</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>23.007463101141472</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>20.093278072667459</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>17.180015033326889</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>15.10048752422481</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>14.45824815031153</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>14.587987111714069</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>16.049722844904121</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>17.938845180457751</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>21.576765026504791</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>25.569621878877172</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>27.163248902132999</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>23.97309099163925</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>23.0643310546875</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>21.066415746555911</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>18.732575000000001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>16.846186857045812</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>15.49620316419314</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>16.206364731115801</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>15.732997349330359</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>19.10054240573923</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>20.583411570100139</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>24.936611989144321</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>26.570012207031251</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>25.650202775032941</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>22.94275519238132</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>20.786165364583329</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>19.180331683042951</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>18.017814114666141</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>16.19368999804075</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>15.57768047652916</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>16.139122372581841</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>18.291546481181879</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>21.8054428807947</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>22.93287037037037</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>26.772233829941861</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>27.18449600883152</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>22.537808004471231</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>21.40429216489148</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>18.604916063554452</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>17.167922467417061</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>16.065265198216991</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>15.58646278324666</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>16.400445929582709</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>17.28173467503693</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>21.185713995070689</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>25.722068539234758</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>26.33513849431818</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>24.505189945133591</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>23.71351433658171</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>20.545825269973239</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>17.715656298151</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>14.777483703224521</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>15.638269849270349</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>14.87046627545249</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>17.677457554133859</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>18.895638209814951</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>22.64593268908969</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>25.642583026191971</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>25.613021019878229</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>24.801843171296301</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>23.469806559119011</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>21.636364595389662</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>17.952664556047761</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>16.205115917666411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$D$2:$D$256</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
-                <c:pt idx="0">
-                  <c:v>3.6212018450850959E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1074774765933311E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.8811409042542245E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19948181591445591</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.897844979053492E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.50427958753525703</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.43044191125321057</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.24017600023780841</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.130290000669418E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.430939345636466E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.40375177625199438</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4493106575899346</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.789595957092394E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.31161951419696138</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.19923774979975389</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.5298631916875419E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-9.3254652410415709E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.26447553265819229</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.44199793298817208</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.19103811822483871</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.36903070178997122</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.72577408357411355</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3801084514165618</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.18110186279695151</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.384147431005774E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-9.9462988917812981E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.128693525215172E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.50557109991481353</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.18393925101719419</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.233590453050742</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.43394495297784669</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.48216356075380989</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.1243974169699254</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.18878491274960391</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34151413529007518</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.33061383668646249</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.48836120845764641</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1193997107054058</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.6419652303059891E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.1197543375292535E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.13863330096592519</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.40238000016186121</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.53264037913764983</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.4238676234654018</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-9.0127889107114917E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.6720577651240125</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.5160939714549917</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.1054389626913767</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.7370161879235977E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-8.1149598572151788E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.17597972531159031</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.4842428593245609E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.29893895324516889</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.46167525679976851</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.33202221431649132</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.27049400579538813</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.173796150121796E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-4.7777845471761463E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.6452964044386339E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.26026957743876689</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.18555903648262589</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.60314728162303477</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.0599696753805531E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.24934176666129529</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.38663492602998373</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.53234236580984928</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.43834899042693659</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-7.9394026536207932E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.1410273710886637</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.7590255737304688E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.297505258898317E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.17451066522582809</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.14505576194727479</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.37326338420542637</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.573327664975767E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.32529288959778008</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-0.41167493578114112</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.46915312806481813</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.1261186847082136E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-4.9060276150703429E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.32623815316081228</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.16309028947857071</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.1684375618988613E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.2052759396827828E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-8.0775876438265448E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.21605481969596049</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-2.547538585232613E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.38959444143476279</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.31181214696211779</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.51629401600293523</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.49866505158253199</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.39396910179318412</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.39710003662109378</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.46783479245123027</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3.2818412372335889E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.23114919216833379</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-0.26115639695843451</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.23650357184282211</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.14500852703822811</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.16238389269862169</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.24579269079853311</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.49821546668385508</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-0.53771313140809185</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-6.5131236166849626E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.28764116878913781</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.42863589770173371</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-0.42752665343600282</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-0.15712881180488389</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.32759488498905942</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-9.7640621817533749E-3</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-4.53033936329377E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.103861848751228</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-0.46298968136965568</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-0.56136414433868842</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.47917706325715859</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.31606441473810931</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.43503101257114468</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3.2755996191973528E-3</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3.7812690397279462E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.16801439461940121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.21997867981942909</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-0.29912415018842259</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-0.1680529870300741</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-4.0060359394172428E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.45236077978020978</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-0.45812833761867089</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.51608693739947153</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.13284214695652691</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.56900622393633871</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-8.5606500272840547E-3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.2702958055317692E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.2420998533826508</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.26422259197142972</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.22532593222225411</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-6.9802719274920488E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>8.238479184432769E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.33270843845888098</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-0.49196193716620318</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.3680356472028225</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.41999833251579249</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.14250126863137269</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-7.5714716270788393E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.399647462715223</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-0.15549402253296529</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-0.149412391650312</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-8.1745748808889684E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4.968135878884581E-2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-0.33745007693595769</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-0.35948291970364882</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-0.56152841042011226</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-0.20254625276077631</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.20002491118141971</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-4.2093640767741747E-2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.30936485228499738</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-0.15879610140029701</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.203369140625</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1.6379033776348351E-2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.19313400340192191</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5.9377104737037827E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-0.1489855374261172</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-0.36736014839652542</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-8.9333193067093974E-2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-0.40899272297703942</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-9.668039747319862E-2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.33573474557737171</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-0.26560649356326538</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-0.1012966316866587</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-0.23194520267439481</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1.114904825924007E-2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-0.29354416637336128</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-0.29182562717171601</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-0.3010521687252421</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-0.47008448471257708</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-0.44595148015710973</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-0.34607375911408411</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>6.183362486189263E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>8.1842553615570066E-2</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-0.28863520428417172</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-0.22665346959593949</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-0.20936415438166639</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-5.2942075685823348E-2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1.665205249613505E-2</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>5.9868136022844888E-2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-0.45088325478875257</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-0.46306541240320798</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-0.56730293160054224</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>4.7956890939974461E-2</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>4.4170937683905058E-2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-2.0324920708278439E-2</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-6.1131650401699933E-2</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-9.9504889330817664E-2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-0.18395646108089159</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-8.3228096530400628E-2</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1.113328655946602E-2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-0.2395170170025234</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-0.51313556996426846</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-0.49736932977899773</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-0.43173358763738823</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-0.30326068246964932</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>5.9861599763960237E-2</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-0.10103375291171141</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>5.8600591992089647E-2</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-0.23717518619329939</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-0.29181596171649199</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-8.5874935906970193E-2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-1.3258866032653689E-3</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1.8003058218741201E-2</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-0.46237951402919958</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-0.60138071390022907</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>-0.41680093084818332</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>-0.3027465910467827</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.2175805688623931</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.27624166097985692</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>-0.113031866304543</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>-0.32606119858591182</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.25318874943689518</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>7.4163567205393535E-2</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>6.3689774213196437E-2</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>-0.1883946669434311</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>-0.48529879886991789</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>-0.53678983052571616</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>-0.40840622624955292</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.17384711244052509</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.3027772263596995</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>-3.1143905664379051E-2</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>-0.1012431379324331</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>-8.9915428768881145E-2</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>-0.12326810513323511</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>-4.0917259895244147E-2</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>-0.11691503091291949</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>-8.2744688708802118E-3</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>-0.35551475787984921</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>-0.44037564505613508</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>-0.57319299179632788</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>-0.26923475078507958</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.81551223864658273</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>-6.1896220530111963E-2</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>1.440288121826552E-2</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>-0.1103161295906442</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>-6.0987302395099773E-2</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2.3528955068932958E-3</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>4.9556488340551201E-2</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>-0.34316543127148708</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>-0.31292077010283031</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>-0.59796019317711957</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>-0.46448320851097608</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>-0.27663219922209398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6243-4F5A-8F35-D48669A5002B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="934897088"/>
-        <c:axId val="1386762192"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="934897088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1386762192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1386762192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="934897088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8876,7 +7043,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -10117,6 +8283,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="613894127"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -10899,6 +9066,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1311696704"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -11011,37 +9179,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -11585,6 +9723,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1739632208"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -11673,1973 +9812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12548381452318461"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.84194619422572181"/>
-          <c:h val="0.74350320793234181"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chl-a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.38241643524812757"/>
-                  <c:y val="-0.51299270441009515"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$B$2:$B$256</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
-                <c:pt idx="0">
-                  <c:v>24.86617087339744</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.894210896164019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.91663544605078</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.129715316328479</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.179016017464679</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.36534220694012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.57624370354069</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.49598095085048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.794101812900641</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.318399662231849</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.0088634672619</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.76573121223565</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.557171365489129</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.125672550031769</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.69927448119326</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.10317007211539</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.927875210479399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.972724488062891</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.865816059972779</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.964647852732041</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.181628455996879</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.926439606741569</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18.21015981193009</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.278914572237021</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.002644344301011</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.07871875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.944804524513209</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.86979690012058</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.51001461116412</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.547160598466981</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.701624465396581</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.28143378688198</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.944574333639711</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.00957853320029</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16.817351030880179</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18.555799406982938</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23.660161264441591</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.014904502731358</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.24297944507823</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.222136686107241</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>20.70969830709042</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17.301079644097221</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15.2669046875</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13.866415368505271</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15.057302414996069</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14.51590489665354</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16.72996632772572</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>21.462327680987819</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>24.40054626464844</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24.077423878205131</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>24.779602301954728</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>22.126226586031631</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>20.336302962039881</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>17.216184428627141</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>15.552913647343001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>15.28548637726022</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>15.512510478763041</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15.265207973310289</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>18.000340930103551</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21.07140451147427</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>22.950581224076171</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>25.981881806344699</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>24.24967830882353</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>20.644586802956589</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>19.999162285248811</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.591309346109401</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>15.458770607775589</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>14.09240364180835</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>14.69236526946108</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>15.73064470720721</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>19.371901633522729</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>20.170838498783681</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>23.583852171136659</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25.757796706536389</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25.196215854844411</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.2714016154661</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>19.554967387071649</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18.542947421021839</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>16.63542962529857</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>13.48025579244548</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>13.111726403755441</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>15.66107485626855</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>18.301995121502209</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>20.074075013528141</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23.04447325805322</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>25.315927826379539</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22.736775956915679</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>20.767404216609592</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>20.0889659068818</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>18.567760190753159</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>15.079050715447931</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>14.59268548621894</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.140193320131379</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>16.7724949471393</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>17.962189168891861</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>19.12014581636808</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>24.78703537297023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>26.884750600961539</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>25.674838632185828</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>22.774157865547838</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>21.86190561147837</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>17.681676682692309</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>15.17101278184335</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>15.22188544123428</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14.995556333529869</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.98579240237294</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>16.915410471732741</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>21.825189123891001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>24.556836682020329</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>26.320404324174081</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>25.92846753003003</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>21.579681728713059</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20.880220734126979</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>17.874317956349209</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>16.20965671242212</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14.987601034296381</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>15.59671912863489</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>13.729697323409759</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>18.41708912037037</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>20.11970269795016</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>23.929413746630729</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>26.590216503267971</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>25.992999690594061</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>22.821832896706589</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>20.723517739848731</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>16.855490045755449</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>14.61520729006163</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>14.252299597723701</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>15.20861852845149</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>16.845578937861269</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>17.770301258992809</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>20.46757036028287</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>24.405129937418721</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>26.54299322525063</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>25.222829978099728</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>24.3374692510933</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>19.29538532838983</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>17.451303801921579</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>15.049991625191421</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>13.64339480086276</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>13.0754296875</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>14.96409519548458</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>17.966998343481379</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>20.74993470657704</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>24.810175904088052</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>25.65179451379764</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>24.211766098484851</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>21.669012460295221</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>20.04579927884615</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>16.670006009615381</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>15.585285954431111</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>14.339796595112929</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>13.65801612367021</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>14.85545863766642</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>17.828534100506761</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>20.667146102241851</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>24.59212608097484</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>26.94153992395437</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>24.893284473604371</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>21.60460102127259</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>20.146569618587289</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>19.569254051824529</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>16.884565067140599</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>14.626308716202979</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>14.82346575665739</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>16.817537705343661</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>18.46978050858711</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>20.6304250233209</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>23.82228326612903</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>26.262438322368421</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>25.428950744267748</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>24.91071151859504</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>21.052734375</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>18.15161935152582</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>16.111871328486131</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>15.86457530816641</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>14.381372793974259</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>14.997732139495479</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>17.690940037959042</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>19.939772172407672</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>24.6083370105905</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>26.550495490771809</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>24.041818405511808</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>23.007463101141472</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>20.093278072667459</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>17.180015033326889</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>15.10048752422481</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>14.45824815031153</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>14.587987111714069</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>16.049722844904121</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>17.938845180457751</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>21.576765026504791</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>25.569621878877172</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>27.163248902132999</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>23.97309099163925</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>23.0643310546875</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>21.066415746555911</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>18.732575000000001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>16.846186857045812</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>15.49620316419314</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>16.206364731115801</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>15.732997349330359</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>19.10054240573923</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>20.583411570100139</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>24.936611989144321</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>26.570012207031251</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>25.650202775032941</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>22.94275519238132</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>20.786165364583329</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>19.180331683042951</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>18.017814114666141</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>16.19368999804075</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>15.57768047652916</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>16.139122372581841</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>18.291546481181879</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>21.8054428807947</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>22.93287037037037</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>26.772233829941861</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>27.18449600883152</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>22.537808004471231</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>21.40429216489148</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>18.604916063554452</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>17.167922467417061</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>16.065265198216991</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>15.58646278324666</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>16.400445929582709</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>17.28173467503693</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>21.185713995070689</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>25.722068539234758</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>26.33513849431818</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>24.505189945133591</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>23.71351433658171</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>20.545825269973239</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>17.715656298151</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>14.777483703224521</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>15.638269849270349</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>14.87046627545249</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>17.677457554133859</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>18.895638209814951</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>22.64593268908969</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>25.642583026191971</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>25.613021019878229</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>24.801843171296301</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>23.469806559119011</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>21.636364595389662</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>17.952664556047761</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>16.205115917666411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$2:$C$256</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="255"/>
-                <c:pt idx="0">
-                  <c:v>1.200079096188335</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.471149551010692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2159710619823039</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7125519896582699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.339971674177979</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.34978749622246602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43492891494541952</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91723219462018191</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6147797436308651</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2862957117907421</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.486113212477993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.031843318495639</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.176500351143225</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5126867246388191</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5556867352920691</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.197648996546649</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.86114592041916516</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6415790115272143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.39308025850264061</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.80187815621684932</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.47582454623772658</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.5594738835278266</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.8249331480704698</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9880976466914759</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.279436094806665</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.135922484602665</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.423736292287844</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2609698652708037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6722210702116209</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.64881500725766683</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3961102211312072</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.46872324729000359</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.8507692284859421</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.8600647399475529</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1781240957754626</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.47713646203844851</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.5752260703740157</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.0786972045898442</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.460524382414641</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.5105946634659511</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1426250325028371</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.45347645796464953</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.31434069634828993</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.62331220354352679</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.882253496966487</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.6443597162523229</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.109307303189528</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.744200583969616</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.6562160806239901</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0176443088274061</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.7634476352119719</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.9003599760693151</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.58764539106612634</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.38637012622974543</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.5879261476381078</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.933607080611349</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.6186336903089891</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.2963250938820949</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.309173091765373</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.56647398665144633</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.53773630626166</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.4729788643973212</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.191454786178064</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75246962307187948</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.53429778301940123</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.32493300664992558</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.47926811970455552</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1945354755108171</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.87653488583034944</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.2265012798887309</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.4585612259305081</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.83087108741896276</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.83200687402496099</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.2266643198885658</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.2547288230613429</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.52231248311419309</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.48325849078190369</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.43880446321103778</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.3877428038319519</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.0243972778320309</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.6919464440485359</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.72984528877365762</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.605915285506339</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.1901860641220869</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.9998028460038394</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.0279876662106369</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.055776771029135</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.45265632128193428</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.61701330829867351</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.35417030894823659</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.32703138440622642</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.302496770423228</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.41207174682617193</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.47461225315482319</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.223523550421574</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.61801482583874856</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.60117720816899267</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.66106908805525622</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.482851082525992</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.73621583380093236</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.62638915356972236</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.32687769746694167</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.30112506739048689</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.2408654428746579</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3.0284452052474711</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.2523878959760273</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.4264077641822735</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.88829503898694395</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.57814997987164074</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.189299002706006</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.2673743062429299</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.88911355755286303</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.38562321924901272</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.29715889944157131</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.34871412548899833</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4.8836904081908408</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3.1863193577507518</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.216310904891889</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.268667683559181</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2.472103963280023</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.0639734478248899</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.6758644712483225</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.80066384022806536</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.2858416202776031</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.4023205195425561</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.4290785648651767</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.33094805549172801</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2.2140178508586712</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>4.9763282569679053</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.289050446034973</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.221658640894397</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.78212497021377991</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.67289962399984904</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1.9592866785386029</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.1821044196345649</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.560718805017606</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.53666478744124302</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.37368511480126682</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.58617449930621313</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>4.0158781136341881</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1.949166126740284</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1.767573797880714</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3.9872296280845472</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.83044402186293953</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1.1959419189059981</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1.264131950609612</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1.6156576483912719</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.52971849249144454</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.49549013276339909</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.29740523229402421</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.7276146910911383</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2.1159561180241329</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.94716400853665328</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4.3209063770325207</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.90265059797731162</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2.9154201600609762</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1.506125611438242</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2.553757931704812</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1.6217161666515261</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.90554934131855869</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.47267328008905157</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1.34184501540493</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.50761014361714207</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1.3514301519802441</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3.7993376688860812</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.57818237510887349</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1.50931447959808</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1.46663373782311</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1.48443724654103</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.59768609141317397</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.54914243831190956</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.60472979478433098</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.37079506286704822</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.38743135853679511</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.661497010775139</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1.5549323953100851</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1.730214500427246</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.56136812039507111</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1.072157744389431</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.83759732731802017</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1.295926864833048</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1.3604468031592241</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1.541866987179487</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.38323330541508049</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.3491336788751383</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.27815844407722129</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1.564173095230899</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1.270526736063728</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1.102592756163399</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1.1847076416015621</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.94328613281249996</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.7318925912458013</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.86282018530974058</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1.115346727093447</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.58905898045449356</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.31157669540523558</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.31876113479201862</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.39779417489928742</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.52563977138601614</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1.8341057021142499</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1.66798421781357</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1.5668511094454529</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.60576570118572692</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.58540464779774803</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.97635083399220313</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1.120084847099289</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1.1620114988034911</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.35079599431648112</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.25353806000903129</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.38607325527452058</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.53351294378058067</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>1.89061640349912</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2.1557211266942771</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.9041550982693386</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.474894874974301</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>3.194655865854561</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>1.9758967997864909</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>1.8807771533419499</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.84403563736118759</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.35006422187054209</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.30716675652398001</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.43967831765803828</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>2.1200022761983082</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2.719605077188997</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>1.3775222258977411</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.90164984072359222</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>1.4799684560419679</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>1.4939313743546689</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>1.153798743430666</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.84491452303799719</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1.234952538790477</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.49890220905172411</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.44815637569616329</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.27964752795649511</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.60770929872600077</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>8.6030036322504504</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>1.1846251960814469</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>1.3313521625839659</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.86359863281250004</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>1.1754406375317881</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>1.321931034685617</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>1.651240088722923</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.48755786718199051</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.53826671499815792</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.26023225067053662</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.35788504236495372</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.52529573414423703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F431-4BB5-BC7F-3284BAB35B0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1698650976"/>
-        <c:axId val="1526699424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1698650976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>SST (℃)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:shade val="95000"/>
-                <a:satMod val="105000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1526699424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1526699424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Chl-a (mg/m^3)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:shade val="95000"/>
-                <a:satMod val="105000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698650976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16795808502421311"/>
-          <c:y val="0.58846675174242891"/>
-          <c:w val="0.2699800074324949"/>
-          <c:h val="0.15051953909063215"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13959,46 +10132,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -14483,522 +10616,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -18512,522 +14129,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -19350,276 +14451,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76045120-7C53-1AEB-57FF-8BC859FD313F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D469C69-CF8D-6074-C66A-CA5FA9D47C0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>2002</v>
-          </cell>
-          <cell r="B2">
-            <v>1.3815851448733409</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2003</v>
-          </cell>
-          <cell r="B3">
-            <v>2.0597034029606651</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2004</v>
-          </cell>
-          <cell r="B4">
-            <v>1.9553657044736881</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2005</v>
-          </cell>
-          <cell r="B5">
-            <v>1.871005983831713</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2006</v>
-          </cell>
-          <cell r="B6">
-            <v>2.38573521746078</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2007</v>
-          </cell>
-          <cell r="B7">
-            <v>1.515620548334619</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2008</v>
-          </cell>
-          <cell r="B8">
-            <v>1.0591813393170679</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2009</v>
-          </cell>
-          <cell r="B9">
-            <v>1.185172878345822</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2010</v>
-          </cell>
-          <cell r="B10">
-            <v>1.0683019338449919</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2011</v>
-          </cell>
-          <cell r="B11">
-            <v>1.481163681478938</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2012</v>
-          </cell>
-          <cell r="B12">
-            <v>1.491802436810391</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2013</v>
-          </cell>
-          <cell r="B13">
-            <v>1.4295734249965411</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2014</v>
-          </cell>
-          <cell r="B14">
-            <v>1.550924287122657</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2015</v>
-          </cell>
-          <cell r="B15">
-            <v>1.6072449596849121</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2016</v>
-          </cell>
-          <cell r="B16">
-            <v>1.253668103951719</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2017</v>
-          </cell>
-          <cell r="B17">
-            <v>0.9797889567171395</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2018</v>
-          </cell>
-          <cell r="B18">
-            <v>0.85860613869443048</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2019</v>
-          </cell>
-          <cell r="B19">
-            <v>0.92596246947046124</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2020</v>
-          </cell>
-          <cell r="B20">
-            <v>1.2369951200596581</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2021</v>
-          </cell>
-          <cell r="B21">
-            <v>1.214341028241513</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2022</v>
-          </cell>
-          <cell r="B22">
-            <v>1.541044097435625</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2023</v>
-          </cell>
-          <cell r="B23">
-            <v>0.38113767572657581</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -24082,8 +18913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7F992-33AC-4C69-8496-44B4C655FAB8}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24452,8 +19283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E5AC3-62A4-4BFD-9BFF-32C8F848E280}">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27961,6 +22792,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>